--- a/target_channel.xlsx
+++ b/target_channel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BelajarPython-Atom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kilobyte\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FABF3F-9E6E-449E-9060-E7F220F30534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E71DD-E78B-439B-831A-98E31ECA8E09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19510F8-A6E4-4093-A89B-622B11DD9D65}"/>
   </bookViews>
@@ -64,7 +64,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +81,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,15 +107,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,19 +434,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,126 +458,120 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>50307.4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>932774</v>
+      <c r="B2" s="3">
+        <v>58319</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1085979</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>314648</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5337579</v>
+      <c r="B3" s="3">
+        <v>318270</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5434520</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>448114</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7249780.5999999996</v>
+      <c r="B4" s="3">
+        <v>471706</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7492184</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>75127.399999999994</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1418139</v>
+      <c r="B5" s="3">
+        <v>81517</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1541932</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>84183.4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1510734</v>
+      <c r="B6" s="3">
+        <v>83494</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1511809</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>221824</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3995214</v>
+      <c r="B7" s="3">
+        <v>197525</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3530077</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>7946.4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>118404</v>
+      <c r="B8" s="3">
+        <v>9179</v>
+      </c>
+      <c r="C8" s="3">
+        <v>139500</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>23091</v>
-      </c>
-      <c r="C9" s="1">
-        <v>339101.6</v>
+      <c r="B9" s="3">
+        <v>24370</v>
+      </c>
+      <c r="C9" s="3">
+        <v>364358</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
